--- a/entrega_grupo.xlsx
+++ b/entrega_grupo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-marcos\RecodePRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDA72E9-8BD3-461A-9096-3AA8B45AB44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84C159D-6670-455C-A30E-8AE49A1BF881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9D74A95-77CF-4358-A109-166C91114A7E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Detalhado" sheetId="1" r:id="rId1"/>
+    <sheet name="Geral" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>Criar site em HTML</t>
   </si>
@@ -91,13 +92,124 @@
   </si>
   <si>
     <t>Definição de tarefas</t>
+  </si>
+  <si>
+    <t>Material para o site</t>
+  </si>
+  <si>
+    <t>Textos</t>
+  </si>
+  <si>
+    <t>Imagens</t>
+  </si>
+  <si>
+    <t>Artes</t>
+  </si>
+  <si>
+    <t>Vídeos</t>
+  </si>
+  <si>
+    <t>Criar Site em HTML</t>
+  </si>
+  <si>
+    <t>Criar parte estrutural do site</t>
+  </si>
+  <si>
+    <t>Fazer estilização do site em CSS</t>
+  </si>
+  <si>
+    <t>Definição de fontes e paleta de cores</t>
+  </si>
+  <si>
+    <t>Estilizar site</t>
+  </si>
+  <si>
+    <t>Fazer responsividade</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>Fazer Modelo Físico do BD</t>
+  </si>
+  <si>
+    <t>Versionamento em GIT</t>
+  </si>
+  <si>
+    <t>Criar Git/GitHub para o Grupo e adicionar membros</t>
+  </si>
+  <si>
+    <t>Criar repositório para o trabalho</t>
+  </si>
+  <si>
+    <t>Apresentação PowerPoint</t>
+  </si>
+  <si>
+    <t>Levantamento de conteudo para apresentação</t>
+  </si>
+  <si>
+    <t>Estruturação de Apresentação</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Estruturar Pitch</t>
+  </si>
+  <si>
+    <t>Treinar Apresentação Pitch</t>
+  </si>
+  <si>
+    <t>Eduarda</t>
+  </si>
+  <si>
+    <t>Bastidores</t>
+  </si>
+  <si>
+    <t>Documentar Cronograma</t>
+  </si>
+  <si>
+    <t>Definição de Próximas entregas</t>
+  </si>
+  <si>
+    <t>Como foi feito divisão de tarefas</t>
+  </si>
+  <si>
+    <t>Como foram as reuniões e discussões</t>
+  </si>
+  <si>
+    <t>Apresentação Bastidores</t>
+  </si>
+  <si>
+    <t>Estruturar Apresentação de acordo com material levantado</t>
+  </si>
+  <si>
+    <t>Treinar Apresentação Bastidores</t>
+  </si>
+  <si>
+    <t>Marcos Paulo</t>
+  </si>
+  <si>
+    <t>Outra Eduarda</t>
+  </si>
+  <si>
+    <t>Comprimir e Editar (Se preciso) Material</t>
+  </si>
+  <si>
+    <t>Marcelio</t>
+  </si>
+  <si>
+    <t>✔</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +239,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -182,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,12 +320,20 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF45EB84"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,15 +642,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB2BAA-E29D-4D89-8847-DCB5285664DB}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D54F44-4D4A-498B-8E6A-B218B4C35E8A}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
